--- a/Theo dõi/tiền cọc/tiền cọc.xlsx
+++ b/Theo dõi/tiền cọc/tiền cọc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\tiền cọc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C047D9-2B6A-4EC9-B209-A6F2262BF590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3CEDFF-BACB-430D-B1B7-029EF82485DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89BAC197-542B-4F61-98F8-620790723512}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>STT</t>
   </si>
@@ -60,9 +60,6 @@
     <t xml:space="preserve">LÊ THÀNH LẬP </t>
   </si>
   <si>
-    <t>NGUYỄN CHÍ BÌNH</t>
-  </si>
-  <si>
     <t xml:space="preserve">ĐỖ VĂN NAM </t>
   </si>
   <si>
@@ -72,15 +69,9 @@
     <t xml:space="preserve">NGUYỄN DUY NHẤT </t>
   </si>
   <si>
-    <t xml:space="preserve">TRẦN HOÀI THIỆN </t>
-  </si>
-  <si>
     <t xml:space="preserve">TRẦN THANH THANH  </t>
   </si>
   <si>
-    <t>BÙI VĂN HẬN</t>
-  </si>
-  <si>
     <t xml:space="preserve">NGUYỄN QUANG HÀ </t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t>0969 010 942</t>
   </si>
   <si>
-    <t>0945 414 842</t>
-  </si>
-  <si>
     <t>0972 789 389</t>
   </si>
   <si>
@@ -117,9 +105,6 @@
     <t>0369 922 571</t>
   </si>
   <si>
-    <t>0832 565 558</t>
-  </si>
-  <si>
     <t>0911 181 895</t>
   </si>
   <si>
@@ -163,6 +148,75 @@
   </si>
   <si>
     <t>THỐNG KÊ TIỀN CỌC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAI BÁ ĐẠT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYỄN VĂN THẠO </t>
+  </si>
+  <si>
+    <t>0926 066 166</t>
+  </si>
+  <si>
+    <t>0975 617 376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHAN HOÀNG EM </t>
+  </si>
+  <si>
+    <t>THỪA ĐỖ (Sun)</t>
+  </si>
+  <si>
+    <t>0377 374 446</t>
+  </si>
+  <si>
+    <t>Tên Zalo</t>
+  </si>
+  <si>
+    <t>okok</t>
+  </si>
+  <si>
+    <t>Đỗ Chung</t>
+  </si>
+  <si>
+    <t>Mr Hiếu Son</t>
+  </si>
+  <si>
+    <t>Nam Do</t>
+  </si>
+  <si>
+    <t>Nhất</t>
+  </si>
+  <si>
+    <t>Thanh</t>
+  </si>
+  <si>
+    <t>Hùng</t>
+  </si>
+  <si>
+    <t>Hà</t>
+  </si>
+  <si>
+    <t>Nhâm</t>
+  </si>
+  <si>
+    <t>Đạt</t>
+  </si>
+  <si>
+    <t>Trần Hạo Nam</t>
+  </si>
+  <si>
+    <t>Hoàng</t>
+  </si>
+  <si>
+    <t>Do Thành</t>
+  </si>
+  <si>
+    <t>Vũ Linh</t>
+  </si>
+  <si>
+    <t>Thao</t>
   </si>
 </sst>
 </file>
@@ -220,8 +274,7 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -229,20 +282,20 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color rgb="FFFFFF00"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="18"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,8 +320,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -352,56 +417,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -415,81 +436,159 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -497,11 +596,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="18"/>
         <name val="Calibri Light"/>
         <family val="2"/>
         <scheme val="major"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -524,11 +624,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="18"/>
         <name val="Calibri Light"/>
         <family val="2"/>
         <scheme val="major"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -551,11 +652,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="18"/>
         <name val="Calibri Light"/>
         <family val="2"/>
         <scheme val="major"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -578,11 +680,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="18"/>
         <name val="Calibri Light"/>
         <family val="2"/>
         <scheme val="major"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -605,11 +708,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="18"/>
         <name val="Calibri Light"/>
         <family val="2"/>
         <scheme val="major"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -632,12 +736,34 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="18"/>
         <name val="Calibri Light"/>
         <family val="2"/>
         <scheme val="major"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -659,59 +785,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="18"/>
         <name val="Calibri Light"/>
         <family val="2"/>
         <scheme val="major"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -825,19 +904,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCC1FECE-AD4E-4450-9E21-D26B5BD317DC}" name="Table2" displayName="Table2" ref="B4:H20" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="B4:H20" xr:uid="{CCC1FECE-AD4E-4450-9E21-D26B5BD317DC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:G20">
-    <sortCondition ref="G4:G20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCC1FECE-AD4E-4450-9E21-D26B5BD317DC}" name="Table2" displayName="Table2" ref="B4:I20" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="B4:I20" xr:uid="{CCC1FECE-AD4E-4450-9E21-D26B5BD317DC}">
+    <filterColumn colId="5">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:H20">
+    <sortCondition ref="H4:H20"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CF4CE8DC-DFB1-469D-8C94-7315D4C53DAF}" name="STT" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{42AD0173-914C-4EE1-8CC7-43E62C2E655D}" name="HỌ TÊN" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{2EC45DE5-8EAB-412E-AB55-3FA4EAC204F7}" name="SDT" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{E9AE8100-85BD-4842-971C-FFE4B4940EEC}" name="NGÀY" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{96A9FCC0-0970-40BB-85FC-9488351DB1DE}" name="TRẠNG THÁI" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{425EEB70-915B-4C3E-B554-FEAD3352DC6F}" name="KHU VỰC" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{FCFBCD6A-7030-452D-B471-DED59DAAE48B}" name="CHỨNG THỰC" dataDxfId="0"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{CF4CE8DC-DFB1-469D-8C94-7315D4C53DAF}" name="STT" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{42AD0173-914C-4EE1-8CC7-43E62C2E655D}" name="HỌ TÊN" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{BCE3ACAA-0843-41A8-B71F-8FCC8B2BFD28}" name="Tên Zalo" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{2EC45DE5-8EAB-412E-AB55-3FA4EAC204F7}" name="SDT" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{E9AE8100-85BD-4842-971C-FFE4B4940EEC}" name="NGÀY" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{96A9FCC0-0970-40BB-85FC-9488351DB1DE}" name="TRẠNG THÁI" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{425EEB70-915B-4C3E-B554-FEAD3352DC6F}" name="KHU VỰC" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{FCFBCD6A-7030-452D-B471-DED59DAAE48B}" name="CHỨNG THỰC" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1140,382 +1224,445 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3D20AC-DDFE-4DB8-8383-3C1FFC2CB381}">
-  <dimension ref="B1:H20"/>
+  <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="5"/>
-    <col min="3" max="3" width="32.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="10" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="27.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+    <row r="1" spans="2:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="9">
+      <c r="G4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="D5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="2:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="9">
-        <f t="shared" ref="B6:B20" si="0">B5+1</f>
+      <c r="H5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="8">
+        <f t="shared" ref="B6:B16" si="0">B5+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="D6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="2:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="B7" s="9">
+      <c r="H6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="2:9" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="D7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="14">
         <v>46113</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="2:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="9">
+      <c r="G7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="B8" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="18" t="s">
+      <c r="C8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="2:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="9">
+      <c r="H8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="B9" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="20" t="s">
+      <c r="C9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="2:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="9">
+      <c r="H9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="2:9" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="C10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="14">
         <v>46023</v>
       </c>
-      <c r="F10" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="2:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="9">
+      <c r="G10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="2:9" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="2:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="9">
+      <c r="C11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="14">
+        <v>46082</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="B12" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="16">
-        <v>46082</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="18" t="s">
+      <c r="D12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="2:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="9">
+      <c r="H12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="B13" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="16">
-        <v>46082</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="18" t="s">
+      <c r="C13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="2:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="9">
+      <c r="H13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="18" t="s">
+      <c r="C14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="2:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="9">
+      <c r="H14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="2:9" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" spans="2:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="B16" s="21">
+      <c r="C15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="2:9" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="D16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="24">
         <v>46082</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="G16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="B17" s="8">
+        <f>B19+1</f>
+        <v>14</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="8">
+        <f>B17+1</f>
+        <v>15</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="8">
+        <f>B16+1</f>
+        <v>13</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="8">
+        <f>B18+1</f>
+        <v>16</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="2:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="21">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" spans="2:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="21">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" spans="2:8" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="21">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="28">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="D20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C5:C19">
+  <conditionalFormatting sqref="C5:C13 C16:C20">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Theo dõi/tiền cọc/tiền cọc.xlsx
+++ b/Theo dõi/tiền cọc/tiền cọc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\tiền cọc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MINH HAI DRIVER\MinhHaiDriver2\Theo dõi\tiền cọc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3CEDFF-BACB-430D-B1B7-029EF82485DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835C3008-FF5A-4ABF-8B12-EDD46D432668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89BAC197-542B-4F61-98F8-620790723512}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89BAC197-542B-4F61-98F8-620790723512}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -510,14 +501,179 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="13">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -554,179 +710,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <name val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -904,24 +887,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCC1FECE-AD4E-4450-9E21-D26B5BD317DC}" name="Table2" displayName="Table2" ref="B4:I20" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <autoFilter ref="B4:I20" xr:uid="{CCC1FECE-AD4E-4450-9E21-D26B5BD317DC}">
-    <filterColumn colId="5">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCC1FECE-AD4E-4450-9E21-D26B5BD317DC}" name="Table2" displayName="Table2" ref="B4:I20" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="B4:I20" xr:uid="{CCC1FECE-AD4E-4450-9E21-D26B5BD317DC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:H20">
     <sortCondition ref="H4:H20"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{CF4CE8DC-DFB1-469D-8C94-7315D4C53DAF}" name="STT" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{42AD0173-914C-4EE1-8CC7-43E62C2E655D}" name="HỌ TÊN" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{BCE3ACAA-0843-41A8-B71F-8FCC8B2BFD28}" name="Tên Zalo" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{2EC45DE5-8EAB-412E-AB55-3FA4EAC204F7}" name="SDT" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{E9AE8100-85BD-4842-971C-FFE4B4940EEC}" name="NGÀY" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{96A9FCC0-0970-40BB-85FC-9488351DB1DE}" name="TRẠNG THÁI" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{425EEB70-915B-4C3E-B554-FEAD3352DC6F}" name="KHU VỰC" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{FCFBCD6A-7030-452D-B471-DED59DAAE48B}" name="CHỨNG THỰC" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{CF4CE8DC-DFB1-469D-8C94-7315D4C53DAF}" name="STT" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{42AD0173-914C-4EE1-8CC7-43E62C2E655D}" name="HỌ TÊN" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{BCE3ACAA-0843-41A8-B71F-8FCC8B2BFD28}" name="Tên Zalo" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{2EC45DE5-8EAB-412E-AB55-3FA4EAC204F7}" name="SDT" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{E9AE8100-85BD-4842-971C-FFE4B4940EEC}" name="NGÀY" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{96A9FCC0-0970-40BB-85FC-9488351DB1DE}" name="TRẠNG THÁI" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{425EEB70-915B-4C3E-B554-FEAD3352DC6F}" name="KHU VỰC" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{FCFBCD6A-7030-452D-B471-DED59DAAE48B}" name="CHỨNG THỰC" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1226,34 +1205,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3D20AC-DDFE-4DB8-8383-3C1FFC2CB381}">
   <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="27.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="8.90625" style="2"/>
+    <col min="3" max="3" width="27.36328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1279,7 +1258,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
       <c r="B5" s="8">
         <v>1</v>
       </c>
@@ -1301,7 +1280,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
       <c r="B6" s="8">
         <f t="shared" ref="B6:B16" si="0">B5+1</f>
         <v>2</v>
@@ -1315,16 +1294,18 @@
       <c r="E6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="11" t="s">
-        <v>35</v>
+      <c r="F6" s="14">
+        <v>46037</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>30</v>
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="2:9" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
       <c r="B7" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1349,7 +1330,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
       <c r="B8" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1372,7 +1353,7 @@
       </c>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
       <c r="B9" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1395,7 +1376,7 @@
       </c>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="2:9" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
       <c r="B10" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1420,7 +1401,7 @@
       </c>
       <c r="I10" s="18"/>
     </row>
-    <row r="11" spans="2:9" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
       <c r="B11" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1445,7 +1426,7 @@
       </c>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
       <c r="B12" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1468,7 +1449,7 @@
       </c>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
       <c r="B13" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1491,7 +1472,7 @@
       </c>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
       <c r="B14" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1514,7 +1495,7 @@
       </c>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="2:9" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
       <c r="B15" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1533,7 +1514,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="2:9" ht="23.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
       <c r="B16" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1558,7 +1539,7 @@
       </c>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
       <c r="B17" s="8">
         <f>B19+1</f>
         <v>14</v>
@@ -1581,7 +1562,7 @@
       </c>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
       <c r="B18" s="8">
         <f>B17+1</f>
         <v>15</v>
@@ -1604,7 +1585,7 @@
       </c>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
       <c r="B19" s="8">
         <f>B16+1</f>
         <v>13</v>
@@ -1627,7 +1608,7 @@
       </c>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
       <c r="B20" s="8">
         <f>B18+1</f>
         <v>16</v>

--- a/Theo dõi/tiền cọc/tiền cọc.xlsx
+++ b/Theo dõi/tiền cọc/tiền cọc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MINH HAI DRIVER\MinhHaiDriver2\Theo dõi\tiền cọc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\tiền cọc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835C3008-FF5A-4ABF-8B12-EDD46D432668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E726153-A12A-4C81-A8A7-F9E2C1031FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89BAC197-542B-4F61-98F8-620790723512}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89BAC197-542B-4F61-98F8-620790723512}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>STT</t>
   </si>
@@ -51,9 +60,6 @@
     <t xml:space="preserve">LÊ THÀNH LẬP </t>
   </si>
   <si>
-    <t xml:space="preserve">ĐỖ VĂN NAM </t>
-  </si>
-  <si>
     <t xml:space="preserve">NGUYỄN QUỐC NAM </t>
   </si>
   <si>
@@ -63,15 +69,9 @@
     <t xml:space="preserve">TRẦN THANH THANH  </t>
   </si>
   <si>
-    <t xml:space="preserve">NGUYỄN QUANG HÀ </t>
-  </si>
-  <si>
     <t xml:space="preserve">TRẦN VIẾT HÙNG </t>
   </si>
   <si>
-    <t xml:space="preserve">LÊ VĨNH NHÂM </t>
-  </si>
-  <si>
     <t xml:space="preserve">NGUYỄN VĂN THÁI </t>
   </si>
   <si>
@@ -87,9 +87,6 @@
     <t>0969 010 942</t>
   </si>
   <si>
-    <t>0972 789 389</t>
-  </si>
-  <si>
     <t>0989 272 425</t>
   </si>
   <si>
@@ -102,15 +99,9 @@
     <t>0981 436 488</t>
   </si>
   <si>
-    <t>0784 617 223</t>
-  </si>
-  <si>
     <t>0917 387 279</t>
   </si>
   <si>
-    <t>0912 285 485</t>
-  </si>
-  <si>
     <t>0329 461 991</t>
   </si>
   <si>
@@ -174,9 +165,6 @@
     <t>Mr Hiếu Son</t>
   </si>
   <si>
-    <t>Nam Do</t>
-  </si>
-  <si>
     <t>Nhất</t>
   </si>
   <si>
@@ -184,12 +172,6 @@
   </si>
   <si>
     <t>Hùng</t>
-  </si>
-  <si>
-    <t>Hà</t>
-  </si>
-  <si>
-    <t>Nhâm</t>
   </si>
   <si>
     <t>Đạt</t>
@@ -286,7 +268,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +303,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -412,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -482,9 +470,6 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -495,6 +480,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -887,10 +890,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCC1FECE-AD4E-4450-9E21-D26B5BD317DC}" name="Table2" displayName="Table2" ref="B4:I20" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="B4:I20" xr:uid="{CCC1FECE-AD4E-4450-9E21-D26B5BD317DC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:H20">
-    <sortCondition ref="H4:H20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCC1FECE-AD4E-4450-9E21-D26B5BD317DC}" name="Table2" displayName="Table2" ref="B4:I18" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="B4:I18" xr:uid="{CCC1FECE-AD4E-4450-9E21-D26B5BD317DC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:H18">
+    <sortCondition ref="H4:H18"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{CF4CE8DC-DFB1-469D-8C94-7315D4C53DAF}" name="STT" dataDxfId="7"/>
@@ -1203,36 +1206,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3D20AC-DDFE-4DB8-8383-3C1FFC2CB381}">
-  <dimension ref="B1:I20"/>
+  <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" style="2"/>
-    <col min="3" max="3" width="27.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.90625" style="2"/>
+    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="27.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D2" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1240,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>2</v>
@@ -1249,16 +1252,16 @@
         <v>3</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B5" s="8">
         <v>1</v>
       </c>
@@ -1266,46 +1269,46 @@
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B6" s="8">
-        <f t="shared" ref="B6:B16" si="0">B5+1</f>
+        <f t="shared" ref="B6:B17" si="0">B5+1</f>
         <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6" s="14">
         <v>46037</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B7" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1314,23 +1317,23 @@
         <v>7</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="14">
         <v>46113</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B8" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1338,22 +1341,22 @@
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>49</v>
+      <c r="D8" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B9" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1361,22 +1364,24 @@
       <c r="C9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>9</v>
+      <c r="D9" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="F9" s="14">
+        <v>46023</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B10" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1385,256 +1390,195 @@
         <v>10</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F10" s="14">
-        <v>46023</v>
+        <v>46082</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I10" s="18"/>
     </row>
-    <row r="11" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B11" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="14">
-        <v>46082</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B12" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>13</v>
+      <c r="C12" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B13" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="F13" s="10"/>
       <c r="G13" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="18"/>
+        <v>24</v>
+      </c>
+      <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B14" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>42</v>
+      <c r="C14" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B15" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>43</v>
+      <c r="C15" s="22" t="s">
+        <v>5</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="24">
+        <v>46082</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B16" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>5</v>
+      <c r="C16" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="24">
-        <v>46082</v>
-      </c>
-      <c r="G16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="22" t="s">
-        <v>31</v>
+      <c r="F16" s="22"/>
+      <c r="G16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B17" s="8">
-        <f>B19+1</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="23"/>
+      <c r="I17" s="28"/>
     </row>
-    <row r="18" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
-      <c r="B18" s="8">
-        <f>B17+1</f>
-        <v>15</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="23"/>
-    </row>
-    <row r="19" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
-      <c r="B19" s="8">
-        <f>B16+1</f>
-        <v>13</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="23"/>
-    </row>
-    <row r="20" spans="2:9" ht="23.4" x14ac:dyDescent="0.35">
-      <c r="B20" s="8">
-        <f>B18+1</f>
-        <v>16</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="29"/>
+    <row r="18" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C5:C13 C16:C20">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="C15:C18 C5:C12">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1643,7 +1587,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Theo dõi/tiền cọc/tiền cọc.xlsx
+++ b/Theo dõi/tiền cọc/tiền cọc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\tiền cọc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E726153-A12A-4C81-A8A7-F9E2C1031FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DF45BA-5ED2-454E-869C-65C67539901E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89BAC197-542B-4F61-98F8-620790723512}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
   <si>
     <t>STT</t>
   </si>
@@ -190,6 +190,24 @@
   </si>
   <si>
     <t>Thao</t>
+  </si>
+  <si>
+    <t>976 617 376</t>
+  </si>
+  <si>
+    <t>977 617 376</t>
+  </si>
+  <si>
+    <t>978 617 376</t>
+  </si>
+  <si>
+    <t>979 617 376</t>
+  </si>
+  <si>
+    <t>980 617 376</t>
+  </si>
+  <si>
+    <t>981 617 376</t>
   </si>
 </sst>
 </file>
@@ -268,7 +286,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,12 +321,6 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -400,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -480,24 +492,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -847,7 +841,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>594254</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>203601</xdr:rowOff>
+      <xdr:rowOff>126963</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -890,8 +884,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCC1FECE-AD4E-4450-9E21-D26B5BD317DC}" name="Table2" displayName="Table2" ref="B4:I18" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="B4:I18" xr:uid="{CCC1FECE-AD4E-4450-9E21-D26B5BD317DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CCC1FECE-AD4E-4450-9E21-D26B5BD317DC}" name="Table2" displayName="Table2" ref="B4:I23" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="B4:I23" xr:uid="{CCC1FECE-AD4E-4450-9E21-D26B5BD317DC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:H18">
     <sortCondition ref="H4:H18"/>
   </sortState>
@@ -1206,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3D20AC-DDFE-4DB8-8383-3C1FFC2CB381}">
-  <dimension ref="B1:I18"/>
+  <dimension ref="B1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1275,8 +1269,8 @@
         <v>13</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="11" t="s">
-        <v>29</v>
+      <c r="G5" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>24</v>
@@ -1285,7 +1279,7 @@
     </row>
     <row r="6" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B6" s="8">
-        <f t="shared" ref="B6:B17" si="0">B5+1</f>
+        <f t="shared" ref="B6:B23" si="0">B5+1</f>
         <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1566,18 +1560,144 @@
       <c r="I17" s="28"/>
     </row>
     <row r="18" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
+      <c r="B18" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="28"/>
+    </row>
+    <row r="19" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="B21" s="8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="28"/>
+    </row>
+    <row r="22" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="B22" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="28"/>
+    </row>
+    <row r="23" spans="2:9" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="B23" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C15:C18 C5:C12">
+  <conditionalFormatting sqref="C5:C12 C15:C23">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>

--- a/Theo dõi/tiền cọc/tiền cọc.xlsx
+++ b/Theo dõi/tiền cọc/tiền cọc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Theo dõi\tiền cọc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DF45BA-5ED2-454E-869C-65C67539901E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B42587-0568-493B-AADB-0E71B248CF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89BAC197-542B-4F61-98F8-620790723512}"/>
   </bookViews>
@@ -1202,7 +1202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3D20AC-DDFE-4DB8-8383-3C1FFC2CB381}">
   <dimension ref="B1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1213,10 +1213,11 @@
     <col min="3" max="3" width="27.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="27.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="26" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
